--- a/reports/air_raw_data/date_bussnies_quantity.xlsx
+++ b/reports/air_raw_data/date_bussnies_quantity.xlsx
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
